--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,84 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0000000001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>контакт1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0000000002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>контакт2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0000000003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>контакт3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0000000004</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>контакт444</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0000000005</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>контакт5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9512870557</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Подопытный</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>9875324724</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Вова</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>П</t>
         </is>
       </c>
     </row>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,84 +448,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0000000001</t>
+          <t>0000000003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>контакт1</t>
+          <t>контакт3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0000000002</t>
+          <t>0000000004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>контакт2</t>
+          <t>контакт444</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0000000003</t>
+          <t>0000000005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>контакт3</t>
+          <t>контакт5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0000000004</t>
+          <t>9875324724</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>контакт444</t>
+          <t>П</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0000000005</t>
+          <t>9512870557</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>контакт5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>9512870557</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Подопытный</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9875324724</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>П</t>
+          <t>Маячок2</t>
         </is>
       </c>
     </row>

--- a/Files/contacts.xlsx
+++ b/Files/contacts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,18 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9875325498</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>мяуво</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
